--- a/Result/Orbit/Manufacturing/JPN.xlsx
+++ b/Result/Orbit/Manufacturing/JPN.xlsx
@@ -463,7 +463,7 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>23.46921539563932</v>
+        <v>23.51118533942285</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>23.47176597231475</v>
+        <v>22.91646605346672</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>23.36115643732072</v>
+        <v>23.22496131025208</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>23.35048737419174</v>
+        <v>23.46223871796685</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>22.83664375633507</v>
+        <v>23.34313101236244</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>22.40186384416154</v>
+        <v>22.57136181122235</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>22.45220880818845</v>
+        <v>22.41510671628836</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>21.11971716938407</v>
+        <v>22.5104361684067</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>20.71470204605068</v>
+        <v>21.37814173416357</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>20.91713129374546</v>
+        <v>20.62557756598807</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>21.12059121924424</v>
+        <v>20.71620011040051</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>21.42337238571039</v>
+        <v>21.04924452857622</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3992856851895</v>
+        <v>21.24638294496718</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>21.87550588124908</v>
+        <v>21.40448155415064</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>21.27403122026707</v>
+        <v>21.77218993006231</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>19.04768350970545</v>
+        <v>21.4553928006988</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>20.76620089862018</v>
+        <v>19.60253054994483</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>19.53555430517587</v>
+        <v>20.17389412940264</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>19.66670842701939</v>
+        <v>19.69539993845483</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>19.32903165437587</v>
+        <v>19.62804287804696</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>19.59360923342026</v>
+        <v>19.35997847101179</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>20.46247037584918</v>
+        <v>19.4546109327296</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>20.2880385682684</v>
+        <v>20.09839101762842</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -734,50 +734,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>20.26384305858724</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>20.23193448194145</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.68920583694221</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.68751694386836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>20.26384305858724</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>20.32520531869491</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.71904335886274</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.71365039179729</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>20.26384305858724</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>20.61110380323584</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.32408773332693</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.56777098716191</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>20.26384305858724</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>20.57509018084983</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.70455610884782</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.0688053083887</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>20.26384305858724</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>20.72157408903829</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.85584199985289</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.02880068667219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -825,7 +845,7 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>23.46921539563932</v>
+        <v>23.46200004703515</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -835,7 +855,7 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>23.47176597231475</v>
+        <v>23.21424409363605</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -845,7 +865,7 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>23.36115643732072</v>
+        <v>23.30881173362922</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -855,7 +875,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>23.35048737419174</v>
+        <v>23.23327662019845</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -865,7 +885,7 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>22.83664375633507</v>
+        <v>23.24542379072799</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -875,7 +895,7 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>22.40186384416154</v>
+        <v>22.89518940225548</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -885,7 +905,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>22.45220880818845</v>
+        <v>22.34332070508266</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -895,7 +915,7 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>21.11971716938407</v>
+        <v>22.32883714812287</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -905,7 +925,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>20.71470204605068</v>
+        <v>21.12252239185174</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -915,7 +935,7 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>20.91713129374546</v>
+        <v>20.73863030128526</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -925,7 +945,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>21.12059121924424</v>
+        <v>20.66837056735461</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -935,7 +955,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>21.42337238571039</v>
+        <v>20.96557972772641</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -945,7 +965,7 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3992856851895</v>
+        <v>21.18646639714423</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -955,7 +975,7 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>21.87550588124908</v>
+        <v>21.21676288022332</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -965,7 +985,7 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>21.27403122026707</v>
+        <v>21.68944548185713</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>19.04768350970545</v>
+        <v>21.40055557656598</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>20.76620089862018</v>
+        <v>19.56133792912047</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>19.53555430517587</v>
+        <v>20.33641040074069</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>19.66670842701939</v>
+        <v>19.7176432688519</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>19.32903165437587</v>
+        <v>19.41691723698903</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>19.59360923342026</v>
+        <v>19.4230315788833</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>20.46247037584918</v>
+        <v>19.53260003525507</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>20.2880385682684</v>
+        <v>20.24541814400058</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>2017</v>
       </c>
       <c r="B25" t="n">
-        <v>20.43594606860216</v>
+        <v>20.28611829585063</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>20.61976962533107</v>
+        <v>20.45090596328206</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>2019</v>
       </c>
       <c r="B27" t="n">
-        <v>20.05877621706484</v>
+        <v>20.69251224579164</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>19.74777174028171</v>
+        <v>20.14377075804164</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>19.13380404390768</v>
+        <v>19.7652576466809</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1146,50 +1166,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>19.31539212341895</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>19.2350478042794</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18.29683958898713</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.25803967851598</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>19.31539212341895</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>19.08302293850642</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.32970456445424</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.70075212075692</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>19.31539212341895</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>18.91635256490158</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16.5588149890941</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.91598848555582</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>19.31539212341895</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>18.87680200282693</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.27614890920191</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.01250286638891</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>19.31539212341895</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>18.83794384100612</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.65842771194295</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.34136913722448</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
